--- a/视贝文件/讨论170516/办事处广告汇总（核销）表（广告费用报销单）20170516.xlsx
+++ b/视贝文件/讨论170516/办事处广告汇总（核销）表（广告费用报销单）20170516.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\201702-厦门视贝科技有限公司\02 蓝图设计\2.11 客户化方案设计\视贝开发需求【seebest】\讨论170416\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\yonyou\视贝文件\讨论170516\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13929,11 +13929,71 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13943,24 +14003,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14004,65 +14046,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14436,21 +14436,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -14478,12 +14478,12 @@
       <c r="AL1" s="3"/>
     </row>
     <row r="2" spans="1:41" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="40" t="s">
         <v>32</v>
       </c>
@@ -14492,23 +14492,23 @@
         <v>2</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="66"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -14524,33 +14524,33 @@
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="1:41" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="83"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -14560,33 +14560,33 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:41" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="72"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="86"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
@@ -14596,33 +14596,33 @@
       <c r="AF4" s="7"/>
     </row>
     <row r="5" spans="1:41" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="77"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -14632,33 +14632,33 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:41" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="80"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="55"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -14668,33 +14668,33 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:41" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="83"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
@@ -14704,35 +14704,35 @@
       <c r="AF7" s="7"/>
     </row>
     <row r="8" spans="1:41" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="55" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="52" t="s">
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="54"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="74"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -14751,37 +14751,37 @@
       <c r="AO8" s="9"/>
     </row>
     <row r="9" spans="1:41" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91" t="s">
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="63" t="s">
         <v>35</v>
       </c>
       <c r="N9" s="95" t="s">
@@ -14802,16 +14802,16 @@
       <c r="S9" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="93" t="s">
+      <c r="T9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="52" t="s">
+      <c r="U9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="54"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
@@ -14830,18 +14830,18 @@
       <c r="AO9" s="9"/>
     </row>
     <row r="10" spans="1:41" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
       <c r="I10" s="48" t="s">
         <v>23</v>
       </c>
@@ -14851,15 +14851,15 @@
       <c r="K10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="92"/>
-      <c r="M10" s="87"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="64"/>
       <c r="N10" s="96"/>
       <c r="O10" s="98"/>
       <c r="P10" s="102"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="100"/>
       <c r="S10" s="100"/>
-      <c r="T10" s="94"/>
+      <c r="T10" s="71"/>
       <c r="U10" s="11" t="s">
         <v>27</v>
       </c>
@@ -20804,6 +20804,20 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="30">
+    <mergeCell ref="N8:T8"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="I2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A6:Y6"/>
     <mergeCell ref="A7:Y7"/>
@@ -20818,22 +20832,8 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:Y9"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="P9:P10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Z1:IL10 M9 U8:U10 N8 A1 A3:A8 Y10 W8:X10">
@@ -20990,7 +20990,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CCB107E-3868-45AE-B4D5-E53BA371ADDA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F19949E3-FD31-4899-A012-1C12ABC01C67}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>